--- a/CS402-Sp24-Draft-Schedule.xlsx
+++ b/CS402-Sp24-Draft-Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs402-spring2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ED1648-A808-40BF-84DF-9F9D2B16A4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E11A30-6724-4175-8F95-299E597F6ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="1230" windowWidth="24675" windowHeight="13695" xr2:uid="{28923DA2-90DB-47E2-B94E-ECFE9B6BB1C0}"/>
+    <workbookView xWindow="14820" yWindow="1260" windowWidth="12900" windowHeight="13695" xr2:uid="{28923DA2-90DB-47E2-B94E-ECFE9B6BB1C0}"/>
   </bookViews>
   <sheets>
     <sheet name="CS402-Prelim Scheudle" sheetId="1" r:id="rId1"/>
@@ -65,21 +65,12 @@
     <t>Spring Break</t>
   </si>
   <si>
-    <t>Milestone 1 Presentation: RevMetrix</t>
-  </si>
-  <si>
     <t>Spring Capstone Expo: 3:00 to 6:00 in KEC - Posters and Demos</t>
   </si>
   <si>
-    <t>Assign02: Team Detailed Proposal, Design, and Schedule due: RevMetrix</t>
-  </si>
-  <si>
     <t>Demo of existing RevMetrix project from CS400-Fa24</t>
   </si>
   <si>
-    <t>Assign01:RevMetrix Individual Proposal &amp; Wish List due: PW</t>
-  </si>
-  <si>
     <t>Reading Day (no classes)</t>
   </si>
   <si>
@@ -99,6 +90,15 @@
   </si>
   <si>
     <t>Draft Technical Report presentation (last Day of class)</t>
+  </si>
+  <si>
+    <t>Assign01:RevMetrix Individual Proposal &amp; Wish List due</t>
+  </si>
+  <si>
+    <t>Assign02: Team Detailed Proposal, Design, and Schedule due</t>
+  </si>
+  <si>
+    <t>Milestone 1 Presentation</t>
   </si>
 </sst>
 </file>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AB1940-B34F-4F83-BCB8-E449ECD30E0E}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +640,7 @@
         <v>45688</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -706,7 +706,7 @@
         <v>45695</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -827,7 +827,7 @@
         <v>45707</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1052,7 +1052,7 @@
         <v>45728</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>45730</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
         <v>45749</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
         <v>45763</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1507,7 +1507,7 @@
         <v>45771</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1580,7 +1580,7 @@
         <v>45778</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
         <v>45784</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
         <v>45786</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1699,7 +1699,7 @@
         <v>45789</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1732,7 +1732,7 @@
         <v>45792</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
